--- a/exports/students.xlsx
+++ b/exports/students.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,39 +424,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Jane Smith</v>
-      </c>
-      <c r="B2">
-        <v>8765432109</v>
+        <v>Abin sakya</v>
+      </c>
+      <c r="B2" t="str">
+        <v>98458921346</v>
       </c>
       <c r="C2" t="str">
-        <v>jane@example.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>R102</v>
+        <v>abinsakya877@gmail.com</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
       </c>
       <c r="E2" t="str">
-        <v>B</v>
+        <v>class 19</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Robert Brown</v>
-      </c>
-      <c r="B3">
-        <v>7654321098</v>
+        <v>bibek</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1234567890</v>
       </c>
       <c r="C3" t="str">
-        <v>robert@example.com</v>
-      </c>
-      <c r="D3" t="str">
-        <v>R103</v>
+        <v>bibek@gmail.com</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
       </c>
       <c r="E3" t="str">
-        <v>A</v>
+        <v>5B</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -464,267 +464,27 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Emily Davis</v>
-      </c>
-      <c r="B4">
-        <v>6543210987</v>
+        <v>nitesh</v>
+      </c>
+      <c r="B4" t="str">
+        <v>987654321</v>
       </c>
       <c r="C4" t="str">
-        <v>emily@example.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>R104</v>
+        <v>nitesh@example.com</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
       </c>
       <c r="E4" t="str">
-        <v>C</v>
+        <v>12B</v>
       </c>
       <c r="F4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Michael Wilson</v>
-      </c>
-      <c r="B5">
-        <v>5432109876</v>
-      </c>
-      <c r="C5" t="str">
-        <v>michael@example.com</v>
-      </c>
-      <c r="D5" t="str">
-        <v>R105</v>
-      </c>
-      <c r="E5" t="str">
-        <v>B</v>
-      </c>
-      <c r="F5">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> rolex</v>
-      </c>
-      <c r="B6">
-        <v>984589246</v>
-      </c>
-      <c r="C6" t="str">
-        <v>sahanirakesh877@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>10</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve"> shristy</v>
-      </c>
-      <c r="B7">
-        <v>984589246</v>
-      </c>
-      <c r="C7" t="str">
-        <v>sahanirakesh877@gmail.com</v>
-      </c>
-      <c r="D7" t="str">
-        <v>14</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve"> sudhira Ray</v>
-      </c>
-      <c r="B8">
-        <v>984589246</v>
-      </c>
-      <c r="C8" t="str">
-        <v>sahanirakesh877@gmail.com</v>
-      </c>
-      <c r="D8" t="str">
-        <v>15</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve"> glowin</v>
-      </c>
-      <c r="B9">
-        <v>984589246</v>
-      </c>
-      <c r="C9" t="str">
-        <v>sahanirakesh877@gmail.com</v>
-      </c>
-      <c r="D9" t="str">
-        <v>16</v>
-      </c>
-      <c r="E9" t="str">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve"> angel</v>
-      </c>
-      <c r="B10">
-        <v>984589246</v>
-      </c>
-      <c r="C10" t="str">
-        <v>sahanirakesh877@gmail.com</v>
-      </c>
-      <c r="D10" t="str">
-        <v>17</v>
-      </c>
-      <c r="E10" t="str">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>bibek</v>
-      </c>
-      <c r="B11">
-        <v>1234567890</v>
-      </c>
-      <c r="C11" t="str">
-        <v>bibek@gmail.com</v>
-      </c>
-      <c r="D11" t="str">
-        <v>25</v>
-      </c>
-      <c r="E11" t="str">
-        <v>5B</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>nitesh</v>
-      </c>
-      <c r="B12">
-        <v>987654321</v>
-      </c>
-      <c r="C12" t="str">
-        <v>nitesh@example.com</v>
-      </c>
-      <c r="D12" t="str">
-        <v>26</v>
-      </c>
-      <c r="E12" t="str">
-        <v>12B</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v xml:space="preserve"> hello </v>
-      </c>
-      <c r="B13">
-        <v>984589246</v>
-      </c>
-      <c r="C13" t="str">
-        <v>sahanirakesh877@gmail.com</v>
-      </c>
-      <c r="D13" t="str">
-        <v>171</v>
-      </c>
-      <c r="E13" t="str">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Rakesh Kumar Sahani</v>
-      </c>
-      <c r="B14">
-        <v>9845892346</v>
-      </c>
-      <c r="C14" t="str">
-        <v>admin@example.com</v>
-      </c>
-      <c r="D14" t="str">
-        <v>221</v>
-      </c>
-      <c r="E14" t="str">
-        <v>c</v>
-      </c>
-      <c r="F14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Football</v>
-      </c>
-      <c r="B15">
-        <v>9845892346</v>
-      </c>
-      <c r="C15" t="str">
-        <v>thunderbolts@admin.com</v>
-      </c>
-      <c r="D15" t="str">
-        <v>444</v>
-      </c>
-      <c r="E15" t="str">
-        <v>class 11</v>
-      </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Rizan Maharjan</v>
-      </c>
-      <c r="B16">
-        <v>1234567890</v>
-      </c>
-      <c r="C16" t="str">
-        <v>rijan@123gmail.com</v>
-      </c>
-      <c r="D16" t="str">
-        <v>342</v>
-      </c>
-      <c r="E16" t="str">
-        <v>class 10</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>